--- a/test/NSB-P2 SSR - TOP - TEMPLATE.xlsx
+++ b/test/NSB-P2 SSR - TOP - TEMPLATE.xlsx
@@ -1,124 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\NEW\SSR\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B167DBF-0A06-43C2-9DD4-B54B3DBD16E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TEMPLATE" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TEMPLATE" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="DATE_RANGE">#REF!</definedName>
+    <definedName name="FIRST_DAY">#REF!</definedName>
+    <definedName name="FIRST_DAY_FALLBACK">#REF!</definedName>
+    <definedName name="FULL_DATE_FMT">#REF!</definedName>
+    <definedName name="LAST_SUN">#REF!</definedName>
+    <definedName name="MONTH_FMT">#REF!</definedName>
+    <definedName name="NO_MONTH_FMT">#REF!</definedName>
+    <definedName name="NO_YR_FMT">#REF!</definedName>
+    <definedName name="PADDING">#REF!</definedName>
+    <definedName name="PADDING_FALLBACK">#REF!</definedName>
+    <definedName name="PADDING_FORMAT">#REF!</definedName>
+    <definedName name="REF_ERRMSG">#REF!</definedName>
+    <definedName name="REF_FALLBACK">#REF!</definedName>
+    <definedName name="REF_INC">#REF!</definedName>
+    <definedName name="REF_NUM">#REF!</definedName>
+    <definedName name="REF_NUM_FULL">#REF!</definedName>
+    <definedName name="REF_PRETEXT">#REF!</definedName>
+    <definedName name="REF_RESOLVED">#REF!</definedName>
+    <definedName name="REF_TICKER">#REF!</definedName>
+    <definedName name="REF_TICKER_INC">#REF!</definedName>
+    <definedName name="TICKER_PADDING">#REF!</definedName>
+    <definedName name="TICKER_PADDING_FALLBACK">#REF!</definedName>
+    <definedName name="TICKER_PADDING_FORMAT">#REF!</definedName>
+    <definedName name="WEEK_CODE">#REF!</definedName>
+    <definedName name="WEEK_END">#REF!</definedName>
+    <definedName name="WEEK_FULL_FMT">#REF!</definedName>
+    <definedName name="WEEK_NUM">#REF!</definedName>
+    <definedName name="WEEK_START">#REF!</definedName>
+    <definedName name="YEAR_FMT">#REF!</definedName>
+    <definedName name="YEAR_SPACER">#REF!</definedName>
     <definedName name="CUR_YEAR" localSheetId="0">#REF!</definedName>
     <definedName name="DATE_RANGE" localSheetId="0">#REF!</definedName>
-    <definedName name="DATE_RANGE">#REF!</definedName>
     <definedName name="DATE_RANGE_TABLE" localSheetId="0">#REF!</definedName>
     <definedName name="DAY_FMT" localSheetId="0">#REF!</definedName>
     <definedName name="END_YEAR" localSheetId="0">#REF!</definedName>
     <definedName name="FIRST_DAY" localSheetId="0">#REF!</definedName>
-    <definedName name="FIRST_DAY">#REF!</definedName>
     <definedName name="FIRST_DAY_FALLBACK" localSheetId="0">#REF!</definedName>
-    <definedName name="FIRST_DAY_FALLBACK">#REF!</definedName>
     <definedName name="FULL_DATE_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="FULL_DATE_FMT">#REF!</definedName>
     <definedName name="LAST_SUN" localSheetId="0">#REF!</definedName>
-    <definedName name="LAST_SUN">#REF!</definedName>
     <definedName name="MONTH_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="MONTH_FMT">#REF!</definedName>
     <definedName name="NO_MONTH_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="NO_MONTH_FMT">#REF!</definedName>
     <definedName name="NO_YR_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="NO_YR_FMT">#REF!</definedName>
     <definedName name="PADDING" localSheetId="0">#REF!</definedName>
-    <definedName name="PADDING">#REF!</definedName>
     <definedName name="PADDING_FALLBACK" localSheetId="0">#REF!</definedName>
-    <definedName name="PADDING_FALLBACK">#REF!</definedName>
     <definedName name="PADDING_FORMAT" localSheetId="0">#REF!</definedName>
-    <definedName name="PADDING_FORMAT">#REF!</definedName>
     <definedName name="REF_ERRMSG" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_ERRMSG">#REF!</definedName>
     <definedName name="REF_FALLBACK" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_FALLBACK">#REF!</definedName>
     <definedName name="REF_INC" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_INC">#REF!</definedName>
-    <definedName name="REF_NUM">#REF!</definedName>
     <definedName name="REF_NUM_FULL" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_NUM_FULL">#REF!</definedName>
     <definedName name="REF_PRETEXT" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_PRETEXT">#REF!</definedName>
     <definedName name="REF_RESOLVED" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_RESOLVED">#REF!</definedName>
     <definedName name="REF_TICKER" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_TICKER">#REF!</definedName>
     <definedName name="REF_TICKER_INC" localSheetId="0">#REF!</definedName>
-    <definedName name="REF_TICKER_INC">#REF!</definedName>
     <definedName name="TICKER_PADDING" localSheetId="0">#REF!</definedName>
-    <definedName name="TICKER_PADDING">#REF!</definedName>
     <definedName name="TICKER_PADDING_FALLBACK" localSheetId="0">#REF!</definedName>
-    <definedName name="TICKER_PADDING_FALLBACK">#REF!</definedName>
     <definedName name="TICKER_PADDING_FORMAT" localSheetId="0">#REF!</definedName>
-    <definedName name="TICKER_PADDING_FORMAT">#REF!</definedName>
     <definedName name="WEEK_CODE" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_CODE">#REF!</definedName>
     <definedName name="WEEK_END" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_END">#REF!</definedName>
     <definedName name="WEEK_FULL_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_FULL_FMT">#REF!</definedName>
     <definedName name="WEEK_NUM" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_NUM">#REF!</definedName>
     <definedName name="WEEK_START" localSheetId="0">#REF!</definedName>
-    <definedName name="WEEK_START">#REF!</definedName>
     <definedName name="YEAR_FMT" localSheetId="0">#REF!</definedName>
-    <definedName name="YEAR_FMT">#REF!</definedName>
     <definedName name="YEAR_SPACER" localSheetId="0">#REF!</definedName>
-    <definedName name="YEAR_SPACER">#REF!</definedName>
     <definedName name="YEARS" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="36"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -137,69 +127,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3190875" cy="742950"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3276600" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,132 +440,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FFDDD9C3"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="14" max="14" width="1.140625" customWidth="1"/>
+    <col width="1.140625" customWidth="1" min="1" max="1"/>
+    <col width="8.85546875" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" customWidth="1" min="3" max="3"/>
+    <col width="15.7109375" customWidth="1" min="4" max="4"/>
+    <col width="11.140625" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="11"/>
+    <col width="5.85546875" customWidth="1" min="12" max="12"/>
+    <col width="2.7109375" customWidth="1" min="13" max="13"/>
+    <col width="1.140625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+    <row r="1" ht="60" customHeight="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023623" bottom="0.5905511811023623" header="0" footer="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter>
+    <oddHeader/>
     <oddFooter>&amp;L01+024  Effectivity Date: April 3, 2013&amp;R01+024Form No.: HCCF-40-004-012 Revision 1</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>